--- a/biology/Zoologie/Dasycercus/Dasycercus.xlsx
+++ b/biology/Zoologie/Dasycercus/Dasycercus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Dasycercus (qui veut dire queue en houppe) regroupe deux espèces dite rat-marsupial, les Kowari et les Mulgara. Ce sont des petits marsupiaux carnivores proches du diable de Tasmanie et des dasyures qui vivent dans les déserts et les zones semi-désertiques du centre de l'Australie.
 Ils mesurent 12,5 à 22 cm de long avec une queue de 7 à 13 cm. Ce sont des animaux nocturnes mais qui exceptionnellement peuvent prendre des bains de soleil à l'entrée de leur terrier. Ils ont tendance à rester dans des zones ombragées. Leurs reins ont un pouvoir de concentrer énormément les urines qu'ils excrètent pour économiser l'eau dont ils ont besoin car ils ne boivent que très rarement. Ils se nourrissent essentiellement d'insectes et accessoirement de lézards et de serpents nouveau-nés. Ils se reproduisent de juin à septembre et ont des portées de 6 à 7 jeunes. La poche ventrale comprend deux replis latéraux.
